--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3951.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3951.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275694415209798</v>
+        <v>0.5619495511054993</v>
       </c>
       <c r="B1">
-        <v>2.441452564234505</v>
+        <v>1.479623913764954</v>
       </c>
       <c r="C1">
-        <v>6.757677267226075</v>
+        <v>4.54067325592041</v>
       </c>
       <c r="D1">
-        <v>2.867366761868388</v>
+        <v>1.422715067863464</v>
       </c>
       <c r="E1">
-        <v>1.3358987515154</v>
+        <v>0.8134395480155945</v>
       </c>
     </row>
   </sheetData>
